--- a/reports/corpus_1500-unigram_bigram-fold-4.xlsx
+++ b/reports/corpus_1500-unigram_bigram-fold-4.xlsx
@@ -563,67 +563,67 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9328703703703703</v>
+        <v>0.9675925925925926</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9936708860759493</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8991825613079019</v>
+        <v>0.9264305177111717</v>
       </c>
       <c r="H2" t="n">
         <v>0.9702970297029703</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9243027888446215</v>
+        <v>0.952191235059761</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6927710843373494</v>
+        <v>0.7831325301204819</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9497847919655668</v>
+        <v>0.9490674318507891</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5335429769392034</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8738738738738738</v>
+        <v>0.9099099099099099</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7434782608695653</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="S2" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6083086053412463</v>
+        <v>0.7952522255192879</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7934980925526621</v>
+        <v>0.8732791507712722</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7435790489422078</v>
+        <v>0.8735135488666943</v>
       </c>
       <c r="X2" t="n">
-        <v>0.853836196398743</v>
+        <v>0.890290420989464</v>
       </c>
     </row>
     <row r="3">
@@ -639,28 +639,28 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9664268585131894</v>
+        <v>0.9766355140186916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8674033149171271</v>
+        <v>0.88268156424581</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9497206703910615</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8745247148288974</v>
+        <v>0.8996539792387543</v>
       </c>
       <c r="L3" t="n">
         <v>0.8571428571428571</v>
@@ -669,37 +669,37 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5535117056856187</v>
+        <v>0.6941238195173137</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9980392156862745</v>
+        <v>0.9970845481049563</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9150943396226415</v>
+        <v>0.9351851851851852</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9447513812154696</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8991228070175439</v>
+        <v>0.9167616875712656</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7934980925526621</v>
+        <v>0.8732791507712722</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9320231524463589</v>
+        <v>0.9138409064854145</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7934980925526621</v>
+        <v>0.8732791507712722</v>
       </c>
     </row>
     <row r="4">
@@ -715,67 +715,67 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9493521790341578</v>
+        <v>0.972093023255814</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9262536873156343</v>
+        <v>0.9376854599406529</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9308885754583921</v>
+        <v>0.9379310344827586</v>
       </c>
       <c r="H4" t="n">
-        <v>0.98</v>
+        <v>0.9849246231155778</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9606625258799171</v>
+        <v>0.9755102040816327</v>
       </c>
       <c r="K4" t="n">
-        <v>0.773109243697479</v>
+        <v>0.8373590982286634</v>
       </c>
       <c r="L4" t="n">
         <v>0.923076923076923</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6994189117802431</v>
+        <v>0.8018181818181818</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6953551912568305</v>
+        <v>0.8341463414634146</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8940092165898619</v>
+        <v>0.9223744292237445</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7329842931937173</v>
+        <v>0.8321167883211679</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.5625</v>
       </c>
       <c r="S4" t="n">
         <v>0.9090909090909091</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7256637168141593</v>
+        <v>0.8516949152542372</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7934980925526621</v>
+        <v>0.8732791507712722</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7981060857424958</v>
+        <v>0.8892767014920684</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7917975082623859</v>
+        <v>0.8715708453696187</v>
       </c>
     </row>
     <row r="5">
@@ -791,61 +791,61 @@
         <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E5" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="H5" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K5" t="n">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="L5" t="n">
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>2392</v>
+        <v>1906</v>
       </c>
       <c r="O5" t="n">
-        <v>510</v>
+        <v>686</v>
       </c>
       <c r="P5" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q5" t="n">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="R5" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>684</v>
+        <v>877</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7934980925526621</v>
+        <v>0.8732791507712722</v>
       </c>
       <c r="W5" t="n">
         <v>6029</v>
